--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>BALANCE GENERAL</t>
   </si>
@@ -28,6 +28,12 @@
     <t>TOTAL ACTIVOS</t>
   </si>
   <si>
+    <t>Resultado del ejercicio</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO Y PATRIMONIO</t>
+  </si>
+  <si>
     <t>ACTIVOS</t>
   </si>
   <si>
@@ -37,16 +43,31 @@
     <t>Cuenta</t>
   </si>
   <si>
-    <t>Efectivo  equivalentes de efectivo</t>
-  </si>
-  <si>
     <t>Caja</t>
   </si>
   <si>
     <t>ACTIVOS NO CORRIENTES</t>
   </si>
   <si>
-    <t>Software  programas</t>
+    <t>---------------/---------------</t>
+  </si>
+  <si>
+    <t>PASIVOS CORRIENTES</t>
+  </si>
+  <si>
+    <t>Pasivo Corriente</t>
+  </si>
+  <si>
+    <t>Otros pasivos a corto plazo</t>
+  </si>
+  <si>
+    <t>PASIVOS NO CORRIENTES</t>
+  </si>
+  <si>
+    <t>PATRIMONIO</t>
+  </si>
+  <si>
+    <t>Capital inicial</t>
   </si>
   <si>
     <t>Saldo</t>
@@ -407,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,12 +443,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -435,83 +456,187 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>111</v>
+        <v>1110101</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>18828</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1110101</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>19128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>1260803</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>53172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>53172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>72300</v>
+      <c r="C18">
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>31101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>11002</v>
       </c>
     </row>
   </sheetData>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>BALANCE GENERAL</t>
   </si>
@@ -28,7 +28,13 @@
     <t>TOTAL ACTIVOS</t>
   </si>
   <si>
+    <t>TOTAL PASIVOS</t>
+  </si>
+  <si>
     <t>Resultado del ejercicio</t>
+  </si>
+  <si>
+    <t>TOTAL PATRIMONIO</t>
   </si>
   <si>
     <t>TOTAL PASIVO Y PATRIMONIO</t>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,12 +449,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -456,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -467,7 +473,7 @@
         <v>1110101</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>11002</v>
@@ -483,7 +489,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -491,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -515,12 +521,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -528,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -539,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>20002</v>
@@ -550,7 +556,7 @@
         <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -566,7 +572,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -574,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -589,53 +595,61 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>16</v>
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>22002</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>31101</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>-12000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>-11000</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>11002</v>
       </c>
     </row>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -1,108 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance General" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance General" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
-  <si>
-    <t>BALANCE GENERAL</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TOTAL ACTIVOS</t>
-  </si>
-  <si>
-    <t>TOTAL PASIVOS</t>
-  </si>
-  <si>
-    <t>Resultado del ejercicio</t>
-  </si>
-  <si>
-    <t>TOTAL PATRIMONIO</t>
-  </si>
-  <si>
-    <t>TOTAL PASIVO Y PATRIMONIO</t>
-  </si>
-  <si>
-    <t>ACTIVOS</t>
-  </si>
-  <si>
-    <t>ACTIVOS CORRIENTES</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>ACTIVOS NO CORRIENTES</t>
-  </si>
-  <si>
-    <t>---------------/---------------</t>
-  </si>
-  <si>
-    <t>PASIVOS CORRIENTES</t>
-  </si>
-  <si>
-    <t>Pasivo Corriente</t>
-  </si>
-  <si>
-    <t>Otros pasivos a corto plazo</t>
-  </si>
-  <si>
-    <t>PASIVOS NO CORRIENTES</t>
-  </si>
-  <si>
-    <t>PATRIMONIO</t>
-  </si>
-  <si>
-    <t>Capital inicial</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -136,16 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,223 +433,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BALANCE GENERAL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACTIVOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ACTIVOS CORRIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ACTIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1110101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TOTAL ACTIVOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>11002</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>11002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>---------------/---------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PASIVOS CORRIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pasivo Corriente</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>219</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Otros pasivos a corto plazo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PASIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>11002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>219</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVOS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>22002</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>22002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PATRIMONIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>31101</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Capital inicial</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Resultado del ejercicio</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>-12000</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TOTAL PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>-11000</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVO Y PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>11002</v>
       </c>
     </row>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,10 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,14 +68,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom>
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,298 +454,391 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="1" customWidth="1" min="4" max="4"/>
+    <col width="1" customWidth="1" min="5" max="5"/>
+    <col width="1" customWidth="1" min="6" max="6"/>
+    <col width="1" customWidth="1" min="7" max="7"/>
+    <col width="1" customWidth="1" min="8" max="8"/>
+    <col width="1" customWidth="1" min="9" max="9"/>
+    <col width="1" customWidth="1" min="10" max="10"/>
+    <col width="1" customWidth="1" min="11" max="11"/>
+    <col width="1" customWidth="1" min="12" max="12"/>
+    <col width="1" customWidth="1" min="13" max="13"/>
+    <col width="1" customWidth="1" min="14" max="14"/>
+    <col width="1" customWidth="1" min="15" max="15"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>BALANCE GENERAL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>ACTIVOS</t>
         </is>
       </c>
+      <c r="C2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>ACTIVOS CORRIENTES</t>
         </is>
       </c>
+      <c r="C3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="4" t="n">
         <v>1110101</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Caja</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>ACTIVOS NO CORRIENTES</t>
         </is>
       </c>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>TOTAL ACTIVOS</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n">
         <v>11002</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+    </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>---------------/---------------</t>
         </is>
       </c>
+      <c r="C12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>PASIVOS CORRIENTES</t>
         </is>
       </c>
+      <c r="C14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Pasivo Corriente</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4" t="n">
         <v>20002</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="4" t="n">
         <v>219</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>PASIVOS NO CORRIENTES</t>
         </is>
       </c>
+      <c r="C19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>TOTAL PASIVOS</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>PATRIMONIO</t>
         </is>
       </c>
+      <c r="C23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="4" t="n">
         <v>31101</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n">
         <v>-12000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n">
         <v>-11000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>TOTAL PASIVO Y PATRIMONIO</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n">
         <v>11002</v>
       </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +35,21 @@
     <font>
       <name val="Cambria"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -85,9 +100,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -481,366 +505,367 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>BALANCE GENERAL</t>
         </is>
       </c>
       <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>ACTIVOS</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="C2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>ACTIVOS CORRIENTES</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>1110101</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Caja</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ACTIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n"/>
+      <c r="C7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>TOTAL ACTIVOS</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>---------------/---------------</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n"/>
+      <c r="C12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>PASIVOS CORRIENTES</t>
         </is>
       </c>
-      <c r="C14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Pasivo Corriente</t>
         </is>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>20002</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>219</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n">
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>PASIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C19" s="4" t="n"/>
+      <c r="C19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n">
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>TOTAL PASIVOS</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n">
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>PATRIMONIO</t>
         </is>
       </c>
-      <c r="C23" s="4" t="n"/>
+      <c r="C23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>31101</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n">
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n">
         <v>-12000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n">
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n">
         <v>-11000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>TOTAL PASIVO Y PATRIMONIO</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n">
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n">
         <v>11002</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
-      <c r="C35" s="4" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,6 +50,21 @@
       <name val="Cambria"/>
       <b val="1"/>
       <sz val="16"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <i val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -112,6 +127,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,17 +558,17 @@
       <c r="C3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
@@ -560,66 +584,66 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11002</v>
+        <v>111002</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n">
-        <v>11002</v>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n">
+        <v>111002</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>ACTIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n"/>
+      <c r="C7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n">
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>TOTAL ACTIVOS</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n">
-        <v>11002</v>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n">
+        <v>111002</v>
       </c>
     </row>
     <row r="11">
@@ -628,13 +652,13 @@
       <c r="C11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>---------------/---------------</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n"/>
+      <c r="C12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -642,26 +666,26 @@
       <c r="C13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>PASIVOS CORRIENTES</t>
         </is>
       </c>
-      <c r="C14" s="5" t="n"/>
+      <c r="C14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
@@ -694,85 +718,85 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n">
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>PASIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C19" s="5" t="n"/>
+      <c r="C19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n">
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>TOTAL PASIVOS</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n">
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n">
         <v>22002</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="A23" s="7" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>PATRIMONIO</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n"/>
+      <c r="C23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
@@ -792,36 +816,36 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n">
-        <v>-12000</v>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n">
+        <v>88000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n">
-        <v>-11000</v>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n">
+        <v>89000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>TOTAL PASIVO Y PATRIMONIO</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n"/>
-      <c r="C28" s="5" t="n">
-        <v>11002</v>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n">
+        <v>111002</v>
       </c>
     </row>
     <row r="29">

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>111002</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="6">
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="8" t="n">
-        <v>111002</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>111002</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="11">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
       </c>
       <c r="B18" s="8" t="n"/>
       <c r="C18" s="8" t="n">
-        <v>22002</v>
+        <v>23002</v>
       </c>
     </row>
     <row r="19">
@@ -773,7 +773,7 @@
       </c>
       <c r="B22" s="8" t="n"/>
       <c r="C22" s="8" t="n">
-        <v>22002</v>
+        <v>23002</v>
       </c>
     </row>
     <row r="23">
@@ -845,7 +845,7 @@
       </c>
       <c r="B28" s="8" t="n"/>
       <c r="C28" s="8" t="n">
-        <v>111002</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="29">

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -576,89 +576,101 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Activo Corriente</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>11101</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>1110101</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Caja</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>112002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n">
-        <v>112002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>ACTIVOS NO CORRIENTES</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n"/>
+      <c r="C7" s="5" t="n">
+        <v>109002</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n">
+        <v>109002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>ACTIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
           <t>TOTAL ACTIVOS</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n">
-        <v>112002</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>---------------/---------------</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n">
+        <v>109002</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -666,197 +678,201 @@
       <c r="C13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>---------------/---------------</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>PASIVOS CORRIENTES</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="C16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Pasivo Corriente</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>20002</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
+    <row r="19">
+      <c r="A19" s="5" t="n">
         <v>219</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C19" s="5" t="n">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n">
-        <v>23002</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>PASIVOS NO CORRIENTES</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n">
+        <v>23002</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>PASIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>TOTAL PASIVOS</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n">
-        <v>23002</v>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>PATRIMONIO</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
+          <t>TOTAL PASIVOS</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="8" t="n">
+        <v>23002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
+    <row r="27">
+      <c r="A27" s="5" t="n">
         <v>31101</v>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C27" s="5" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="10" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="B26" s="10" t="n"/>
-      <c r="C26" s="10" t="n">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
-      <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n">
-        <v>89000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>TOTAL PASIVO Y PATRIMONIO</t>
         </is>
       </c>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n">
-        <v>112002</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n"/>
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="5" t="n"/>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n">
+        <v>109002</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -744,145 +744,161 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>211020205</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Impuesto sobre la renta a pagar</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n">
-        <v>23002</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n">
+        <v>27252</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>PASIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
+      <c r="C22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n">
-        <v>0</v>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>TOTAL PASIVOS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B24" s="8" t="n"/>
       <c r="C24" s="8" t="n">
-        <v>23002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVOS</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="8" t="n">
+        <v>27252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n"/>
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>PATRIMONIO</t>
         </is>
       </c>
-      <c r="C25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="C26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="n">
+    <row r="28">
+      <c r="A28" s="5" t="n">
         <v>31101</v>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C28" s="5" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>31501</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Resultados acumulados de ejercicios anteriores</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>80750</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="B28" s="10" t="n"/>
-      <c r="C28" s="10" t="n">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
-      <c r="B29" s="8" t="n"/>
-      <c r="C29" s="8" t="n">
-        <v>86000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n">
+        <v>81750</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
         <is>
           <t>TOTAL PASIVO Y PATRIMONIO</t>
         </is>
       </c>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n">
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n">
         <v>109002</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="n"/>
-      <c r="B31" s="5" t="n"/>
-      <c r="C31" s="5" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n"/>
-      <c r="B32" s="5" t="n"/>
-      <c r="C32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -576,101 +576,89 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>11</v>
+        <v>1110101</v>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>Activo Corriente</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>11101</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>-1000</v>
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>109002</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>ACTIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n">
-        <v>109002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>ACTIVOS NO CORRIENTES</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
+          <t>TOTAL ACTIVOS</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL ACTIVOS</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n">
-        <v>109002</v>
-      </c>
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>---------------/---------------</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -678,227 +666,191 @@
       <c r="C13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>---------------/---------------</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="n"/>
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>PASIVOS CORRIENTES</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>PASIVOS CORRIENTES</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>PASIVOS NO CORRIENTES</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Pasivo Corriente</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>20002</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>219</v>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Otros pasivos a corto plazo</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3000</v>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>211020205</v>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Impuesto sobre la renta a pagar</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>4250</v>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVOS</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n">
-        <v>27252</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>PASIVOS NO CORRIENTES</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n"/>
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
+      <c r="A23" s="5" t="n">
+        <v>31101</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Capital inicial</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Resultado del ejercicio</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>TOTAL PASIVOS</t>
+          <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
       <c r="B25" s="8" t="n"/>
       <c r="C25" s="8" t="n">
-        <v>27252</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>PATRIMONIO</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="n"/>
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVO Y PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n"/>
+      <c r="C26" s="8" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>31101</v>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Capital inicial</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>1000</v>
-      </c>
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
-        <v>31501</v>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Resultados acumulados de ejercicios anteriores</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>80750</v>
-      </c>
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
-        <is>
-          <t>Resultado del ejercicio</t>
-        </is>
-      </c>
-      <c r="B30" s="10" t="n"/>
-      <c r="C30" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL PATRIMONIO</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n">
-        <v>81750</v>
-      </c>
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL PASIVO Y PATRIMONIO</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n">
-        <v>109002</v>
-      </c>
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>

--- a/BalanceGeneral.xlsx
+++ b/BalanceGeneral.xlsx
@@ -576,173 +576,175 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
+        <v>11303</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Ventas a cobrar a corto plazo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>1110101</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Caja</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n">
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>ACTIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>TOTAL ACTIVOS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL ACTIVOS</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>---------------/---------------</t>
         </is>
       </c>
-      <c r="C12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
+      <c r="C13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>PASIVOS CORRIENTES</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
+      <c r="C15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n">
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>PASIVOS NO CORRIENTES</t>
         </is>
       </c>
-      <c r="C17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Cuenta</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
+      <c r="C18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n">
-        <v>0</v>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>TOTAL PASIVOS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="8" t="n"/>
@@ -751,81 +753,87 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVOS</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>PATRIMONIO</t>
         </is>
       </c>
-      <c r="C21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="C22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
+    <row r="24">
+      <c r="A24" s="5" t="n">
         <v>31101</v>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C24" s="5" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>Resultado del ejercicio</t>
         </is>
       </c>
-      <c r="B24" s="10" t="n"/>
-      <c r="C24" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL PATRIMONIO</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n">
-        <v>1000000</v>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>TOTAL PASIVO Y PATRIMONIO</t>
+          <t>TOTAL PATRIMONIO</t>
         </is>
       </c>
       <c r="B26" s="8" t="n"/>
       <c r="C26" s="8" t="n">
-        <v>1000000</v>
+        <v>1000010</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL PASIVO Y PATRIMONIO</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
